--- a/handling_collumns_in_the_dataset_checklist.xlsx
+++ b/handling_collumns_in_the_dataset_checklist.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxpo\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxpo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE0DDB-3C9E-4CF3-B488-E9C185FF1F3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190531FF-E584-4C6E-B571-21F26433FCBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$80</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="196">
   <si>
     <t>Col Index</t>
   </si>
@@ -108,9 +111,6 @@
     <t>Alley</t>
   </si>
   <si>
-    <t>null -&gt; "no alley"</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -255,9 +255,6 @@
     <t>MasVnrType</t>
   </si>
   <si>
-    <t>null -&gt; "None"</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -585,27 +582,18 @@
     <t>PoolQC</t>
   </si>
   <si>
-    <t>Excellent - 4 -&gt; Fair - 1, NA - 0</t>
-  </si>
-  <si>
     <t>72</t>
   </si>
   <si>
     <t>Fence</t>
   </si>
   <si>
-    <t>null -&gt; "No Fence"</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
     <t>MiscFeature</t>
   </si>
   <si>
-    <t>null -&gt; "No misc"</t>
-  </si>
-  <si>
     <t>74</t>
   </si>
   <si>
@@ -634,6 +622,9 @@
   </si>
   <si>
     <t>SaleCondition</t>
+  </si>
+  <si>
+    <t>Removing column - more that 10% Nulls</t>
   </si>
 </sst>
 </file>
@@ -911,14 +902,14 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.7109375" customWidth="1"/>
     <col min="5" max="5" width="44.85546875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -981,10 +972,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1026,69 +1017,69 @@
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1099,27 +1090,27 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -1130,13 +1121,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -1144,13 +1135,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
@@ -1158,10 +1149,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -1172,27 +1163,27 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>14</v>
@@ -1203,10 +1194,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>14</v>
@@ -1217,10 +1208,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>14</v>
@@ -1231,10 +1222,10 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>14</v>
@@ -1245,10 +1236,10 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -1259,10 +1250,10 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1273,13 +1264,13 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
@@ -1287,13 +1278,13 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
@@ -1301,24 +1292,24 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>14</v>
@@ -1329,44 +1320,44 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
@@ -1377,75 +1368,75 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>14</v>
@@ -1456,24 +1447,24 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>14</v>
@@ -1484,10 +1475,10 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>14</v>
@@ -1498,10 +1489,10 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>14</v>
@@ -1512,10 +1503,10 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>8</v>
@@ -1526,27 +1517,27 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>20</v>
@@ -1555,29 +1546,29 @@
         <v>9</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>14</v>
@@ -1588,10 +1579,10 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>14</v>
@@ -1602,10 +1593,10 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
@@ -1616,10 +1607,10 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
@@ -1630,10 +1621,10 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>14</v>
@@ -1644,10 +1635,10 @@
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>14</v>
@@ -1658,10 +1649,10 @@
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>14</v>
@@ -1672,10 +1663,10 @@
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>14</v>
@@ -1686,10 +1677,10 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>14</v>
@@ -1700,10 +1691,10 @@
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>14</v>
@@ -1714,27 +1705,27 @@
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>14</v>
@@ -1745,27 +1736,27 @@
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>14</v>
@@ -1776,41 +1767,39 @@
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>149</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>14</v>
@@ -1821,27 +1810,27 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>14</v>
@@ -1852,10 +1841,10 @@
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>14</v>
@@ -1866,61 +1855,61 @@
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>14</v>
@@ -1931,10 +1920,10 @@
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>14</v>
@@ -1945,10 +1934,10 @@
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>14</v>
@@ -1959,10 +1948,10 @@
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>14</v>
@@ -1973,10 +1962,10 @@
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>14</v>
@@ -1987,10 +1976,10 @@
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>14</v>
@@ -2001,55 +1990,53 @@
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>183</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>14</v>
@@ -2060,10 +2047,10 @@
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>14</v>
@@ -2074,10 +2061,10 @@
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>14</v>
@@ -2088,10 +2075,10 @@
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>8</v>
@@ -2102,10 +2089,10 @@
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>8</v>

--- a/handling_collumns_in_the_dataset_checklist.xlsx
+++ b/handling_collumns_in_the_dataset_checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxpo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads from torrent\Shogun.2024.S01E08.1080p.WEB.H264-SuccessfulCrab[TGx]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190531FF-E584-4C6E-B571-21F26433FCBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69637ECE-FB9E-454E-8C98-5222FC9D1AD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="13650" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="195">
   <si>
     <t>Col Index</t>
   </si>
@@ -298,9 +298,6 @@
   </si>
   <si>
     <t>BsmtCond</t>
-  </si>
-  <si>
-    <t>***doing something about missing values***</t>
   </si>
   <si>
     <t>31</t>
@@ -899,10 +896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -936,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -950,7 +948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -964,7 +962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -972,13 +970,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -992,7 +990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1009,7 +1007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1017,13 +1015,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1040,7 +1038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1057,7 +1055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1088,7 +1086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1105,7 +1103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -1119,7 +1117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -1133,7 +1131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -1147,7 +1145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -1161,7 +1159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -1178,7 +1176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -1192,7 +1190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -1206,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1220,7 +1218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1234,7 +1232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -1248,7 +1246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
@@ -1262,7 +1260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
@@ -1276,7 +1274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>67</v>
       </c>
@@ -1290,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>70</v>
       </c>
@@ -1298,10 +1296,10 @@
         <v>71</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>74</v>
       </c>
@@ -1335,7 +1333,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>77</v>
       </c>
@@ -1352,7 +1350,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
@@ -1394,7 +1392,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>84</v>
@@ -1402,10 +1400,10 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>26</v>
@@ -1414,29 +1412,29 @@
         <v>83</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="3" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>14</v>
@@ -1447,66 +1445,66 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>8</v>
@@ -1515,12 +1513,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>26</v>
@@ -1532,12 +1530,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>20</v>
@@ -1546,169 +1544,169 @@
         <v>9</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>26</v>
@@ -1720,26 +1718,26 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>26</v>
@@ -1748,58 +1746,58 @@
         <v>9</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>14</v>
@@ -1810,10 +1808,10 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>26</v>
@@ -1822,29 +1820,29 @@
         <v>83</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>14</v>
@@ -1855,10 +1853,10 @@
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>26</v>
@@ -1867,15 +1865,15 @@
         <v>83</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>26</v>
@@ -1884,15 +1882,15 @@
         <v>83</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>26</v>
@@ -1901,184 +1899,184 @@
         <v>9</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="C76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>8</v>
@@ -2087,12 +2085,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>8</v>
@@ -3022,6 +3020,18 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:F80" xr:uid="{D87C625B-01D4-4B02-9626-1B1FE3EB34DD}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="***doing something about missing values***"/>
+        <filter val="0 in the OHE"/>
+        <filter val="null -&gt; &quot;Blank&quot;"/>
+        <filter val="null -&gt; &quot;No garage&quot;"/>
+        <filter val="numeric handling - mean for example"/>
+        <filter val="pd.NA:0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/handling_collumns_in_the_dataset_checklist.xlsx
+++ b/handling_collumns_in_the_dataset_checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MotiM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxpo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD8D546A-4DAE-4A57-B3AB-0584F7636260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B02AEE7-BD10-4ABE-A663-2F3750F0DD4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="1CvBb9v1I+AW6/2tfDB+Et/pwTZWH6CKlHpbmzaDzAg="/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="195">
   <si>
     <t>Col Index</t>
   </si>
@@ -619,17 +616,27 @@
   </si>
   <si>
     <t>Removing column - more that 10% Nulls</t>
+  </si>
+  <si>
+    <t>null -&gt; "None"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,14 +680,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,21 +907,21 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.7265625" customWidth="1"/>
-    <col min="5" max="5" width="44.81640625" customWidth="1"/>
-    <col min="6" max="25" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -944,7 +952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -958,7 +966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -972,7 +980,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -986,7 +994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1003,7 +1011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1017,7 +1025,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1034,7 +1042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1051,7 +1059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1068,7 +1076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -1082,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1099,7 +1107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1113,7 +1121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -1127,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -1155,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -1186,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -1200,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
@@ -1214,7 +1222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -1228,7 +1236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -1242,7 +1250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
@@ -1256,7 +1264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
@@ -1270,7 +1278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
@@ -1284,21 +1292,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>71</v>
       </c>
@@ -1312,7 +1320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
@@ -1329,7 +1337,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>76</v>
       </c>
@@ -1346,7 +1354,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>78</v>
       </c>
@@ -1360,7 +1368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
@@ -1377,7 +1385,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>84</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>86</v>
       </c>
@@ -1411,7 +1419,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>89</v>
       </c>
@@ -1425,7 +1433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>93</v>
       </c>
@@ -1439,7 +1447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
@@ -1453,7 +1461,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>98</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>100</v>
       </c>
@@ -1481,7 +1489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>102</v>
       </c>
@@ -1495,7 +1503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>104</v>
       </c>
@@ -1509,7 +1517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>106</v>
       </c>
@@ -1526,7 +1534,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>108</v>
       </c>
@@ -1543,7 +1551,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>111</v>
       </c>
@@ -1557,7 +1565,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>114</v>
       </c>
@@ -1571,7 +1579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>116</v>
       </c>
@@ -1585,7 +1593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>118</v>
       </c>
@@ -1599,7 +1607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>120</v>
       </c>
@@ -1613,7 +1621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>122</v>
       </c>
@@ -1627,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>124</v>
       </c>
@@ -1641,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>126</v>
       </c>
@@ -1655,7 +1663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>128</v>
       </c>
@@ -1669,7 +1677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>130</v>
       </c>
@@ -1683,7 +1691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>132</v>
       </c>
@@ -1697,7 +1705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>134</v>
       </c>
@@ -1714,7 +1722,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>136</v>
       </c>
@@ -1728,7 +1736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>138</v>
       </c>
@@ -1745,7 +1753,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>141</v>
       </c>
@@ -1759,7 +1767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>143</v>
       </c>
@@ -1774,7 +1782,7 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>146</v>
       </c>
@@ -1788,7 +1796,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>149</v>
       </c>
@@ -1802,7 +1810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>151</v>
       </c>
@@ -1819,7 +1827,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>154</v>
       </c>
@@ -1833,7 +1841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>156</v>
       </c>
@@ -1847,7 +1855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>158</v>
       </c>
@@ -1864,7 +1872,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>160</v>
       </c>
@@ -1881,7 +1889,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>162</v>
       </c>
@@ -1898,7 +1906,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>165</v>
       </c>
@@ -1912,7 +1920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>167</v>
       </c>
@@ -1926,7 +1934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>169</v>
       </c>
@@ -1940,7 +1948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>171</v>
       </c>
@@ -1954,7 +1962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>173</v>
       </c>
@@ -1968,7 +1976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>175</v>
       </c>
@@ -1982,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>177</v>
       </c>
@@ -1997,7 +2005,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>179</v>
       </c>
@@ -2011,7 +2019,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>181</v>
       </c>
@@ -2025,7 +2033,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>183</v>
       </c>
@@ -2039,7 +2047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>185</v>
       </c>
@@ -2053,7 +2061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>187</v>
       </c>
@@ -2067,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>189</v>
       </c>
@@ -2081,7 +2089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>191</v>
       </c>
@@ -2095,936 +2103,931 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:E80" xr:uid="{D87C625B-01D4-4B02-9626-1B1FE3EB34DD}">
-    <filterColumn colId="3">
+    <filterColumn colId="2">
       <filters>
-        <filter val="***doing something about missing values***"/>
-        <filter val="0 in the OHE"/>
-        <filter val="null -&gt; &quot;Blank&quot;"/>
-        <filter val="null -&gt; &quot;No garage&quot;"/>
-        <filter val="numeric handling - mean for example"/>
-        <filter val="pd.NA:0"/>
+        <filter val="OHE"/>
       </filters>
     </filterColumn>
   </autoFilter>
